--- a/myapp/customer_files/Test_ticket.xlsx
+++ b/myapp/customer_files/Test_ticket.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t xml:space="preserve">Unique Identifier</t>
   </si>
@@ -113,28 +113,10 @@
     <t xml:space="preserve">2925T0720</t>
   </si>
   <si>
-    <t xml:space="preserve">TNVL</t>
+    <t xml:space="preserve">WWTNVLff</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR400003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
+    <t xml:space="preserve">WAR400003,data_migration</t>
   </si>
   <si>
     <t xml:space="preserve">6/15/2020</t>
@@ -173,28 +155,10 @@
     <t xml:space="preserve">782H2510</t>
   </si>
   <si>
-    <t xml:space="preserve">Hadera</t>
+    <t xml:space="preserve">AAHaderaff</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR400041</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
+    <t xml:space="preserve">WAR400041,data_migration</t>
   </si>
   <si>
     <t xml:space="preserve">4/20/2020</t>
@@ -221,25 +185,10 @@
     <t xml:space="preserve">1724T4319</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR400076</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
+    <t xml:space="preserve">QQTNVLff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAR400076,data_migration</t>
   </si>
   <si>
     <t xml:space="preserve">9/14/2020</t>
@@ -272,28 +221,10 @@
     <t xml:space="preserve">50225D0920</t>
   </si>
   <si>
-    <t xml:space="preserve">Dahej</t>
+    <t xml:space="preserve">ZZDahejss</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR400196</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
+    <t xml:space="preserve">WAR400196,data_migration</t>
   </si>
   <si>
     <t xml:space="preserve">9/29/2020</t>
@@ -305,1216 +236,10 @@
     <t xml:space="preserve">TWIN VALLEY TIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">WAR400265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/26/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11R24.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALAXY DL211-G 16PR 149/146M TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">673446-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01C161000920 D067850920</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR400265</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">6/26/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claim denied, other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALLAGHER TIRE, INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR400324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALAXY LDSR 300 E-3 / L-3 ** TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299702-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4778A20</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR400324</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">12/23/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bead Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEVIN DAVIS INDUSTRIAL INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR406108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/13/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-16.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALAXY MUDDY BUDDY R4 10PR TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144264-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12165D3320</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR406108</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">12/30/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR-BAR TIRE SERVICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR406140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/16/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01750C22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR406140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">6/16/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCCARTHY TIRE-CORPORATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR406216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/24/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700/40-22.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALLIANCE 331 FLOTATION IMP I3/HF3 18PR TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33135112AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">319H0920</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR406216</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1/31/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Hazard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEARTLAND TIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR406275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALAXY AGRITRAC II R1 6PR TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">572706-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9524D0321</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR406275</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR406363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/17/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALLIANCE 307 G2L2 16PR TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30700050AL-IG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1725D2521</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR406363</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">10/14/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/23/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR406430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/29/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALLIANCE 324 BIAS R1 8PR TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32406110AL-IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1324T1122</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR406430</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1/27/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POOR FACTORY REPAIR - LINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR407249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420/85R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALLIANCE AGRISTAR II 485 R1W 140D TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48500200AL-IG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4230D2321</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR407249</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4/14/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRE RAMA ACCOUNTS PAYABLE DEPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAR407535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25X10.50LL-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALAXY TURF SPECIAL R3 6PR TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480150-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2515T2522</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WAR407535</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">6/20/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMERCIAL TIRE (Corcoran)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/29/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460/85R30(18.4R30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRISTAR II 485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48500140AL-IG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4630D1921</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10367388</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sidewall bulge/IL Starvation-Reference to the visit of GFS team( cut section received by plant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soluciones Automotrices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPUBLICA DOMINICANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soluciones Automotrices 460/85R30 ASII claim from Dom. Rep. CRC 2nd Part. #15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fri 29-09-2023 10:01</t>
   </si>
   <si>
-    <t xml:space="preserve">9/25/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.00-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HM 400S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337465-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01853C22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10366496</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">INV 04-08-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sidewall separation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAIM 18.00-25 GALAXY HM400S VULCANOR - D01853C22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mon 25-09-2023 10:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/22/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIFTER SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">638051-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA0247</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10283767</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">De Lamination issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEDRIC MASTERS LTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIGERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FW: Defective tyres complained by locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/26/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEEFY BABY III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112266-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12165T3120</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10284497</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lug base crack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyreworld co.,ltd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FW: Claim report for 12-16.5 Galaxy_Tyreworld_2111_#4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500/50-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm Pro Imp 327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32700365AL-IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5017T3719</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10284525</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Jantsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FW: CLAIM 2021-142-oem palazoglu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520/85-38(STEEL BELTED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF 333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33300275AL-IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5238T2119</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10296595</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">INV 31-10-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD7 AXLES &amp; TYRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECLAMACION NEUMATICOS MARMOL(MARMOL SERRANO, CARLOS)   MARMOLEJO---JAEN     1UND NEUMATICO ALLIANCE [...]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">355/65-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifTop SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">623004W-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFF00107779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUN TWS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10307185</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">De-lamination on sidewall area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIGHWAY TYRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balaji mineralas tff00107779.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/21/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750/55-26.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">644 FORESTAR III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64400070AL-IG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D018742019</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10344569</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">INV 13-01-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulge on tread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bohnenkapm Sp. z.o.o.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.06.2022 750.55-26.5 Allliance 644 III Petryko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1806IS2167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710/45-26.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">344 Forestar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34470444AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313H2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">104509</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SEP/CRACK TREAD EDGE ON S.W.                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCAH DIVISION PNEUMATIQUES SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1806IS2244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/23/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710/75R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372 Agriflex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37200099AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">811H1816</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">104575</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIAL CRACK SW &amp; AT SHOULDERS                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOHNENKAMP AG.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012IS5355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620/80R42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181A8/177D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55007030AL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">107764</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN SIDEWALL SPLICE                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOHNENKAMP-AJG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2112IS6398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/27/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600/50-22.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174A6170A8(*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33132623AL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">108822</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TREAD SEPARATION                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2112IS6399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/29/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050/50R32 CFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37600094AL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">108824</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDEWALL SEPARATION                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2308IS7634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/28/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">445/70R24MPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57022001AL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">110124</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RECAMBIOS FRAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2310IS7717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650/45-22.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33141010AL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">110202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">HEUVER/AGRIFAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2212IS7123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500/50R17             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">149D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38100007AL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">109604</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">,data_migration</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">BELT EDGE SEPARATION                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@/MOLCON/AGRIFAC</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +252,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1557,12 +282,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1696,11 +415,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.43"/>
@@ -1965,13 +684,13 @@
         <v>53</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>33</v>
@@ -1980,19 +699,19 @@
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>38</v>
@@ -2006,19 +725,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>16</v>
@@ -2027,19 +746,19 @@
         <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>33</v>
@@ -2048,7 +767,7 @@
         <v>0.88</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>100</v>
@@ -2060,7 +779,7 @@
         <v>36</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>38</v>
@@ -2073,66 +792,26 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -2141,66 +820,26 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>44257</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -2209,66 +848,26 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -2276,67 +875,27 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>101</v>
-      </c>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -2344,67 +903,27 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>44655</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>119</v>
-      </c>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -2412,67 +931,27 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>44960</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>44660</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>44626</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>126</v>
-      </c>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -2480,67 +959,27 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>136</v>
-      </c>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -2549,66 +988,26 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -2617,66 +1016,26 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>44993</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -2685,66 +1044,26 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>45178</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>44752</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
@@ -2753,1148 +1072,452 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
-        <v>2309411</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>145</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
-        <v>2309296</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="10" t="n">
-        <v>45142</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
-        <v>2111441</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W18" s="4" t="n">
-        <v>10283767</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
-        <v>2111572</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
-        <v>2111590</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W20" s="4" t="n">
-        <v>10284525</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
-        <v>2202154</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>44867</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="M21" s="10" t="n">
-        <v>43769</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>10294942</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
-        <v>2205320</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
-        <v>2206404</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="M23" s="10" t="n">
-        <v>44209</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W23" s="4" t="n">
-        <v>10310634</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>43410</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="P24" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V24" s="4"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P25" s="6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>273</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V25" s="4"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>43873</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>550</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="P26" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>273</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V26" s="4"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>331</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P27" s="6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V27" s="4"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>376</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="P28" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>273</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V28" s="4"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>570</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V29" s="4"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>45148</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>331</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V30" s="4"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>44724</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v>381</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" s="6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P31" s="6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="V31" s="4"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="3"/>
@@ -31051,10 +28674,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
